--- a/templates/ermin.xlsx
+++ b/templates/ermin.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danknights/Dropbox/research/ermin/repo/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2A4E9-4845-0A44-84D5-32D89E6D69E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE477BF5-5532-5F47-BB5E-7ECD2FA03C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
     <sheet name="ERMIN" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ERMIN!$A$1:$L$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ERMIN!$A$1:$L$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="446">
   <si>
     <t>Definition</t>
   </si>
@@ -1352,13 +1352,31 @@
   <si>
     <t>The ERMIN checklist
 Simple instructions and checklist for completing the template.</t>
+  </si>
+  <si>
+    <t>emission_quantity</t>
+  </si>
+  <si>
+    <t>emission quantity</t>
+  </si>
+  <si>
+    <t>Quanty of product emitted (without units).</t>
+  </si>
+  <si>
+    <t>emission_quantity_units</t>
+  </si>
+  <si>
+    <t>emission quantity units</t>
+  </si>
+  <si>
+    <t>Units of reported "emission_quantity" field e.g. kg. Use SI base units and standard abbreviations when possible. https://en.wikipedia.org/wiki/SI_base_unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1394,6 +1412,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1421,7 +1445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1439,6 +1463,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1850,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1876,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="93" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L34"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1966,234 +1993,212 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="70">
+    <row r="3" spans="1:12" ht="14">
       <c r="A3" s="2" t="s">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="28">
       <c r="A4" s="2" t="s">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>343</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28">
-      <c r="A5" s="6" t="s">
-        <v>238</v>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="70">
+      <c r="A5" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>330</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>3</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28">
-      <c r="A6" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>370</v>
+      <c r="F6" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28">
       <c r="A7" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>379</v>
+        <v>238</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
       <c r="L7" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="98">
-      <c r="A8" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28">
+      <c r="A8" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>353</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>4</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="98">
-      <c r="A9" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28">
+      <c r="A9" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="98">
       <c r="A10" s="2" t="s">
-        <v>345</v>
+        <v>240</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>348</v>
+        <v>241</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2201,29 +2206,31 @@
         <v>330</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>4</v>
+      </c>
       <c r="L10" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="98">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>350</v>
+        <v>243</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2231,31 +2238,29 @@
         <v>330</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>5</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="112">
-      <c r="A12" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>361</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28">
+      <c r="A12" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2263,98 +2268,116 @@
         <v>330</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>9</v>
-      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="42">
-      <c r="A13" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.9</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="98">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="6" t="s">
-        <v>347</v>
+      <c r="I13" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
       <c r="L13" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="112">
       <c r="A14" s="6" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>9</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="42">
       <c r="A15" s="6" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.9</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="6" t="s">
+        <v>347</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14">
       <c r="A16" s="6" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2363,18 +2386,18 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28">
       <c r="A17" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2385,18 +2408,18 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28">
       <c r="A18" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2407,18 +2430,18 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="14">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28">
       <c r="A19" s="6" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2429,18 +2452,18 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28">
       <c r="A20" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2451,18 +2474,18 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="98">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14">
       <c r="A21" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2473,18 +2496,18 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="28">
       <c r="A22" s="6" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2495,18 +2518,18 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="28">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="98">
       <c r="A23" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2517,18 +2540,18 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28">
       <c r="A24" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2539,18 +2562,18 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28">
       <c r="A25" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2561,18 +2584,18 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28">
       <c r="A26" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2583,18 +2606,18 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14">
       <c r="A27" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2605,18 +2628,18 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14">
       <c r="A28" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2627,18 +2650,18 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14">
       <c r="A29" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2649,18 +2672,18 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14">
       <c r="A30" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2671,18 +2694,18 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14">
       <c r="A31" s="6" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2693,18 +2716,18 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="28">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14">
       <c r="A32" s="6" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2715,18 +2738,18 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14">
       <c r="A33" s="6" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2737,18 +2760,18 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28">
       <c r="A34" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2759,13 +2782,19 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14">
+      <c r="A35" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>438</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2774,12 +2803,20 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="28">
+      <c r="A36" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>434</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2788,7 +2825,9 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2"/>
@@ -3084,92 +3123,52 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="238">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" ht="238">
+      <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2">
-        <v>50</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="42">
-      <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2">
-        <v>51</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="70">
-      <c r="A60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>17</v>
@@ -3180,30 +3179,30 @@
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="14">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="42">
       <c r="A61" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>17</v>
@@ -3214,30 +3213,30 @@
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="182">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="70">
       <c r="A62" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>17</v>
@@ -3248,30 +3247,30 @@
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="28">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="14">
       <c r="A63" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>17</v>
@@ -3282,30 +3281,30 @@
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="42">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="182">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>17</v>
@@ -3316,30 +3315,30 @@
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="28">
       <c r="A65" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>17</v>
@@ -3350,30 +3349,30 @@
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="28">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="42">
       <c r="A66" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="2">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>17</v>
@@ -3384,30 +3383,30 @@
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2">
+        <v>56</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="28">
+      <c r="A67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="14">
-      <c r="A67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>17</v>
@@ -3418,30 +3417,30 @@
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="42">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="28">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
+      </c>
+      <c r="F68" s="2">
+        <v>40</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>17</v>
@@ -3452,21 +3451,21 @@
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="28">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>68</v>
@@ -3475,7 +3474,7 @@
         <v>34</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>17</v>
@@ -3486,30 +3485,30 @@
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="42">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>17</v>
@@ -3520,30 +3519,30 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="14">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="28">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>17</v>
@@ -3554,30 +3553,30 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="14">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="42">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>17</v>
@@ -3588,30 +3587,30 @@
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="28">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="14">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="2">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>17</v>
@@ -3622,21 +3621,21 @@
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="14">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>68</v>
@@ -3645,7 +3644,7 @@
         <v>34</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>17</v>
@@ -3656,30 +3655,30 @@
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="56">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="28">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="F75" s="2">
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>17</v>
@@ -3690,30 +3689,30 @@
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="14">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>17</v>
@@ -3724,30 +3723,30 @@
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="56">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>17</v>
@@ -3758,30 +3757,30 @@
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="56">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="14">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0.01</v>
+        <v>110</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>17</v>
@@ -3792,30 +3791,30 @@
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="28">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="56">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>17</v>
@@ -3826,30 +3825,30 @@
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="42">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="56">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.01</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>17</v>
@@ -3860,30 +3859,30 @@
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="28">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>17</v>
@@ -3894,30 +3893,30 @@
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="28">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="42">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>17</v>
@@ -3928,30 +3927,30 @@
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="28">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>17</v>
@@ -3962,30 +3961,30 @@
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="28">
       <c r="A84" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>17</v>
@@ -3996,30 +3995,30 @@
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="28">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>17</v>
@@ -4030,30 +4029,30 @@
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="14">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="28">
       <c r="A86" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>17</v>
@@ -4064,30 +4063,30 @@
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="14">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="28">
       <c r="A87" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>17</v>
@@ -4098,30 +4097,30 @@
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="28">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="14">
       <c r="A88" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>17</v>
@@ -4132,30 +4131,30 @@
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="14">
       <c r="A89" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>17</v>
@@ -4166,30 +4165,30 @@
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="28">
       <c r="A90" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>17</v>
@@ -4200,30 +4199,30 @@
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="28">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="14">
       <c r="A91" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>17</v>
@@ -4234,30 +4233,30 @@
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="28">
       <c r="A92" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>17</v>
@@ -4268,30 +4267,30 @@
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="28">
       <c r="A93" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>17</v>
@@ -4302,30 +4301,30 @@
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="14">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="28">
       <c r="A94" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>17</v>
@@ -4336,30 +4335,30 @@
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="42">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="28">
       <c r="A95" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>17</v>
@@ -4370,30 +4369,30 @@
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="28">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="14">
       <c r="A96" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>17</v>
@@ -4404,30 +4403,30 @@
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="28">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="42">
       <c r="A97" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>17</v>
@@ -4438,30 +4437,30 @@
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="28">
       <c r="A98" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>17</v>
@@ -4472,30 +4471,30 @@
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="56">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="28">
       <c r="A99" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>17</v>
@@ -4506,28 +4505,30 @@
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="28">
       <c r="A100" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>17</v>
@@ -4538,30 +4539,30 @@
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="28">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="56">
       <c r="A101" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>17</v>
@@ -4572,14 +4573,80 @@
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2">
+        <v>91</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="28">
+      <c r="A102" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2">
+        <v>92</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="28">
+      <c r="A103" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2">
         <v>93</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L101" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:L103" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
